--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -6411,7 +6411,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -7398,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -8058,7 +8058,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -19075,7 +19075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>398</v>
       </c>
@@ -19088,10 +19088,10 @@
         <v>41</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>40</v>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:.}
+    <t xml:space="preserve">value:.}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -12340,7 +12340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>329</v>
       </c>
@@ -12350,13 +12350,13 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>40</v>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -12340,7 +12340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>329</v>
       </c>
@@ -12350,13 +12350,13 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>40</v>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>48</v>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>48</v>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>48</v>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>48</v>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>48</v>
@@ -16334,7 +16334,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>48</v>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -612,7 +612,7 @@
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:.}
+    <t xml:space="preserve">value:coding.code}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -612,7 +612,7 @@
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.code}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -3993,7 +3993,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>49</v>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$148</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:11:10+00:00</t>
+    <t>2021-09-14T08:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1207,39 +1207,6 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/productType"/&gt;
     &lt;code value="DT"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>marketingAuthorization</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/productType"/&gt;
-    &lt;code value="MA"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>marketingAuthorizationHolder</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/productType"/&gt;
-    &lt;code value="MAH"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>marketingAuthorizationStatus</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/productType"/&gt;
-    &lt;code value="MAS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1727,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM166"/>
+  <dimension ref="A1:AM148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1737,7 +1704,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="82.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.5234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -14791,11 +14758,9 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B119" t="s" s="2">
         <v>374</v>
       </c>
+      <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
         <v>69</v>
       </c>
@@ -14804,7 +14769,7 @@
         <v>70</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -14816,13 +14781,13 @@
         <v>69</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14873,7 +14838,7 @@
         <v>69</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>70</v>
@@ -14902,7 +14867,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14913,7 +14878,7 @@
         <v>70</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>69</v>
@@ -14925,13 +14890,13 @@
         <v>69</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14982,22 +14947,22 @@
         <v>69</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>190</v>
+        <v>378</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>69</v>
@@ -15011,18 +14976,18 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>69</v>
@@ -15034,17 +14999,15 @@
         <v>69</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>69</v>
@@ -15093,19 +15056,19 @@
         <v>69</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>191</v>
@@ -15122,11 +15085,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15139,26 +15102,24 @@
         <v>69</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N122" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>69</v>
       </c>
@@ -15206,7 +15167,7 @@
         <v>69</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>70</v>
@@ -15221,7 +15182,7 @@
         <v>128</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>69</v>
@@ -15235,39 +15196,43 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>69</v>
       </c>
@@ -15276,7 +15241,7 @@
         <v>69</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>375</v>
+        <v>69</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>69</v>
@@ -15291,13 +15256,13 @@
         <v>69</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>69</v>
@@ -15315,22 +15280,22 @@
         <v>69</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>69</v>
@@ -15344,7 +15309,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15352,7 +15317,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>77</v>
@@ -15367,17 +15332,15 @@
         <v>69</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>69</v>
@@ -15426,10 +15389,10 @@
         <v>69</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -15453,13 +15416,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>69</v>
       </c>
@@ -15471,7 +15432,7 @@
         <v>71</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>69</v>
@@ -15483,10 +15444,10 @@
         <v>181</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15537,7 +15498,7 @@
         <v>69</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>70</v>
@@ -15566,7 +15527,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15675,7 +15636,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15786,7 +15747,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15899,7 +15860,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15925,10 +15886,10 @@
         <v>135</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15940,7 +15901,7 @@
         <v>69</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>377</v>
+        <v>69</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>69</v>
@@ -15955,13 +15916,13 @@
         <v>69</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>69</v>
@@ -15979,10 +15940,10 @@
         <v>69</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -16008,7 +15969,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16016,7 +15977,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>77</v>
@@ -16031,17 +15992,15 @@
         <v>69</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>69</v>
@@ -16090,10 +16049,10 @@
         <v>69</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -16117,13 +16076,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>69</v>
       </c>
@@ -16132,10 +16089,10 @@
         <v>70</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>69</v>
@@ -16147,10 +16104,10 @@
         <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16201,7 +16158,7 @@
         <v>69</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>70</v>
@@ -16230,7 +16187,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16339,7 +16296,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16450,7 +16407,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16563,7 +16520,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16589,10 +16546,10 @@
         <v>135</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16604,7 +16561,7 @@
         <v>69</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>379</v>
+        <v>69</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>69</v>
@@ -16619,13 +16576,13 @@
         <v>69</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>69</v>
@@ -16643,10 +16600,10 @@
         <v>69</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -16672,7 +16629,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16695,17 +16652,15 @@
         <v>69</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>69</v>
@@ -16754,7 +16709,7 @@
         <v>69</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>70</v>
@@ -16781,9 +16736,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16794,10 +16749,10 @@
         <v>70</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>69</v>
@@ -16806,13 +16761,13 @@
         <v>69</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16863,22 +16818,22 @@
         <v>69</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>69</v>
@@ -16892,18 +16847,18 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>69</v>
@@ -16915,15 +16870,17 @@
         <v>69</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>385</v>
+        <v>124</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M138" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>69</v>
@@ -16972,7 +16929,7 @@
         <v>69</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>70</v>
@@ -16984,10 +16941,10 @@
         <v>69</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>69</v>
@@ -17001,39 +16958,43 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>69</v>
       </c>
@@ -17081,22 +17042,22 @@
         <v>69</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>69</v>
@@ -17110,18 +17071,18 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>69</v>
@@ -17133,17 +17094,15 @@
         <v>69</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>69</v>
@@ -17192,22 +17151,22 @@
         <v>69</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>69</v>
@@ -17221,43 +17180,39 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>123</v>
+        <v>418</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>69</v>
       </c>
@@ -17305,22 +17260,22 @@
         <v>69</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>69</v>
@@ -17334,7 +17289,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17342,10 +17297,10 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>69</v>
@@ -17357,13 +17312,13 @@
         <v>69</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17414,13 +17369,13 @@
         <v>69</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>69</v>
@@ -17443,7 +17398,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17454,7 +17409,7 @@
         <v>70</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>69</v>
@@ -17466,13 +17421,13 @@
         <v>69</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17523,22 +17478,22 @@
         <v>69</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>69</v>
@@ -17552,18 +17507,18 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>69</v>
@@ -17575,15 +17530,17 @@
         <v>69</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M144" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>69</v>
@@ -17632,19 +17589,19 @@
         <v>69</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>191</v>
@@ -17661,11 +17618,11 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17678,24 +17635,26 @@
         <v>69</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>69</v>
       </c>
@@ -17743,7 +17702,7 @@
         <v>69</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>70</v>
@@ -17758,7 +17717,7 @@
         <v>128</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>69</v>
@@ -17772,11 +17731,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17789,26 +17748,22 @@
         <v>69</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>197</v>
+        <v>428</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>69</v>
       </c>
@@ -17856,7 +17811,7 @@
         <v>69</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>199</v>
+        <v>427</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>70</v>
@@ -17868,10 +17823,10 @@
         <v>69</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>69</v>
@@ -17885,7 +17840,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17893,10 +17848,10 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>69</v>
@@ -17908,13 +17863,13 @@
         <v>69</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17965,13 +17920,13 @@
         <v>69</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>69</v>
@@ -17994,7 +17949,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18002,7 +17957,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>77</v>
@@ -18017,13 +17972,13 @@
         <v>69</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>243</v>
+        <v>418</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18074,10 +18029,10 @@
         <v>69</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -18101,1988 +18056,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" hidden="true">
-      <c r="A164" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="165" hidden="true">
-      <c r="A165" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" hidden="true">
-      <c r="A166" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM166">
+  <autoFilter ref="A1:AM148">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20092,7 +18067,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI165">
+  <conditionalFormatting sqref="A2:AI147">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:27:49+00:00</t>
+    <t>2021-10-08T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T08:43:20+00:00</t>
+    <t>2021-10-08T09:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -709,7 +709,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/example/CodeSystem/mediCS"/&gt;
     &lt;code value="SUBST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Substance.xlsx
+++ b/branches/master/StructureDefinition-Substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
